--- a/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_DASHBOARD.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_DASHBOARD.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THC\C0702\ReleaseFiles\Web ReportTemplates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44DAD71-D653-4F7B-A9BF-AEB894BA9AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="Disclaimer" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
-    <t>Disclaimer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This report and the content contained herein ("Report") has been generated using the proprietary software and models of Thomas Ho Company Ltd ("THC") as of the date of this Report. 
-This Report contains confidential and/or proprietary information and is intended solely for the benefit of the authorized user of THC’s services. If you are not the intended and authorized user, you should return this Report to THC immediately and in any event shall not disclose, use, copy, or reproduce this Report or its contents, and shall not display or distribute this Report or its contents to any other party without THC’s prior written authorization. 
-Nothing in this Report is intended to substitute for any party’s obligations to comply with any applicable laws or regulations. This Report and any information herein may not be relied upon by any other person or entity, including any regulatory authority. Without limiting the foregoing, THC shall not be liable for any losses or damages which may arise directly or indirectly from such reliance, including any incidental, consequential or punitive losses or damages. 
-While due care is used in ensuring the content generated in the Report is accurate, the accuracy, completeness and currency of the Report cannot be guaranteed. The THC proprietary software and models may be changed or updated from time to time and future report(s) may be different from current Report, in form or in substance, including such arising from the same data input. THC has no obligation to notify you of any updates or changes of its proprietary software or models, or the existence or content of Report(s) that may be generated using updated or changed software or models. THC MAKES NO REPRESENTATION OR WARRANTY, EXPRESS OR IMPLIED, AS TO THE ACCURACY, COMPLETENESS OR CURRENCY OF THE REPORT HEREIN. 
-This Report is generated based on data input. It is the responsibility of the person or entity that provided the data input to verify the accuracy and completeness of such data input. THC shall not be responsible to verify the accuracy and completeness of the data input provided by any person or entity other than THC. THC shall not be held liable for any errors or omissions of such data input and shall not be held liable for any direct or indirect losses or damages as the result of or arising out of such errors or omissions, including any incidental, consequential or punitive losses or damages. THC shall not be obligated or liable for any errors or omissions of any third party or events beyond THC’s reasonable control.  
-THC is not a registered investment advisor or broker/dealer and does not provide investment advice to any person or entity. Information contained in this Report shall not be construed as any advice or recommendation for trade or investment or otherwise, and is not intended to substitute for obtaining any investment or trade advice. 
-THC is not an accounting firm, legal or tax advisor. Information contained in this Report shall not be construed as any accounting, legal or tax advice, and is not intended to substitute for obtaining accounting, legal or tax advice. 
-Before acting on any information provided in this Report you should conduct your own due diligence to evaluate the accuracy, completeness and usefulness of the information therein, as well as the risks associated with using THC’s models and related services, and in particular, you should seek independent investment, legal, tax and accounting advice.
-THC’s models embedded in THC’s proprietary software in generating the Report are based on theoretical simulations. The projections or other information generated using THC’s models regarding the likelihood of various balance sheet outcomes or other outcomes are hypothetical in nature. While due care has been used in the operating or running of THC’s models, actual results may vary in a materially positive or negative manner.  Therefore there is no guarantee of future results in using THC’s models. Performance analysis is based on certain assumptions with respect to significant factor(s) that may prove not to be as assumed, such assumptions regarding future events are very difficult if not impossible to predict, and many are beyond THC’s control.  Accordingly, there can be no assurance that the projections, analyses or information this Report generated using THC’s models will prove accurate, complete or consistent. THC shall not be liable for any losses or damages which may arise directly or indirectly from use of or reliance on THC’s models, as well as the information contained in this Report, including any incidental, consequential or punitive losses or damages. </t>
-  </si>
-  <si>
     <t>Director Dashboard</t>
   </si>
   <si>
@@ -43,7 +43,7 @@
     <t>As of date: Sep, 2021</t>
   </si>
   <si>
-    <t>Printed on: 2021-11-02 16:56</t>
+    <t>Printed on: 2022-01-06 05:20</t>
   </si>
   <si>
     <t>Previous Cycle: Jun, 2021</t>
@@ -415,7 +415,7 @@
   </si>
   <si>
     <t xml:space="preserve">EVE at Risk
- EVE: -197,765
+ EVE: -197,766
  Duration: -0.57</t>
   </si>
   <si>
@@ -544,12 +544,26 @@
   </si>
   <si>
     <t>Loans secured by real estate</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This report and the content contained herein ("Report") has been generated using the proprietary software and models of Thomas Ho Company Ltd ("THC") as of the date of this Report. 
+This Report contains confidential and/or proprietary information and is intended solely for the benefit of the authorized user of THC’s services. If you are not the intended and authorized user, you should return this Report to THC immediately and in any event shall not disclose, use, copy, or reproduce this Report or its contents, and shall not display or distribute this Report or its contents to any other party without THC’s prior written authorization. 
+Nothing in this Report is intended to substitute for any party’s obligations to comply with any applicable laws or regulations. This Report and any information herein may not be relied upon by any other person or entity, including any regulatory authority. Without limiting the foregoing, THC shall not be liable for any losses or damages which may arise directly or indirectly from such reliance, including any incidental, consequential or punitive losses or damages. 
+While due care is used in ensuring the content generated in the Report is accurate, the accuracy, completeness and currency of the Report cannot be guaranteed. The THC proprietary software and models may be changed or updated from time to time and future report(s) may be different from current Report, in form or in substance, including such arising from the same data input. THC has no obligation to notify you of any updates or changes of its proprietary software or models, or the existence or content of Report(s) that may be generated using updated or changed software or models. THC MAKES NO REPRESENTATION OR WARRANTY, EXPRESS OR IMPLIED, AS TO THE ACCURACY, COMPLETENESS OR CURRENCY OF THE REPORT HEREIN. 
+This Report is generated based on data input. It is the responsibility of the person or entity that provided the data input to verify the accuracy and completeness of such data input. THC shall not be responsible to verify the accuracy and completeness of the data input provided by any person or entity other than THC. THC shall not be held liable for any errors or omissions of such data input and shall not be held liable for any direct or indirect losses or damages as the result of or arising out of such errors or omissions, including any incidental, consequential or punitive losses or damages. THC shall not be obligated or liable for any errors or omissions of any third party or events beyond THC’s reasonable control.  
+THC is not a registered investment advisor or broker/dealer and does not provide investment advice to any person or entity. Information contained in this Report shall not be construed as any advice or recommendation for trade or investment or otherwise, and is not intended to substitute for obtaining any investment or trade advice. 
+THC is not an accounting firm, legal or tax advisor. Information contained in this Report shall not be construed as any accounting, legal or tax advice, and is not intended to substitute for obtaining accounting, legal or tax advice. 
+Before acting on any information provided in this Report you should conduct your own due diligence to evaluate the accuracy, completeness and usefulness of the information therein, as well as the risks associated with using THC’s models and related services, and in particular, you should seek independent investment, legal, tax and accounting advice.
+THC’s models embedded in THC’s proprietary software in generating the Report are based on theoretical simulations. The projections or other information generated using THC’s models regarding the likelihood of various balance sheet outcomes or other outcomes are hypothetical in nature. While due care has been used in the operating or running of THC’s models, actual results may vary in a materially positive or negative manner.  Therefore there is no guarantee of future results in using THC’s models. Performance analysis is based on certain assumptions with respect to significant factor(s) that may prove not to be as assumed, such assumptions regarding future events are very difficult if not impossible to predict, and many are beyond THC’s control.  Accordingly, there can be no assurance that the projections, analyses or information this Report generated using THC’s models will prove accurate, complete or consistent. THC shall not be liable for any losses or damages which may arise directly or indirectly from use of or reliance on THC’s models, as well as the information contained in this Report, including any incidental, consequential or punitive losses or damages. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00↓"/>
     <numFmt numFmtId="165" formatCode="0.00↑"/>
@@ -832,13 +846,58 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -847,56 +906,11 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -964,6 +978,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -989,7 +1006,7 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0EFD5A8-A827-466E-A419-7123851D8E95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0EFD5A8-A827-466E-A419-7123851D8E95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1552,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1546,7 +1563,7 @@
             <a:t>ROE</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" baseline="0" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1557,7 +1574,7 @@
             <a:t> = </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2080,7 +2097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2113,9 +2130,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2148,6 +2182,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2323,11 +2374,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R88" sqref="R88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -2349,38 +2402,38 @@
   <sheetData>
     <row r="1" ht="55.5" customHeight="1"/>
     <row r="2" ht="31.5" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="A3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="22"/>
@@ -2399,7 +2452,7 @@
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -2416,7 +2469,7 @@
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -2428,14 +2481,14 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -2452,88 +2505,88 @@
     </row>
     <row r="9" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="15">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="15">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="15">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="15">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="15">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" ht="15">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="45">
       <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="I19" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="J19" s="50"/>
+      <c r="K19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="L19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="13" t="s">
+      <c r="M19" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" ht="15">
       <c r="A20" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="62">
         <v>139189</v>
@@ -2542,7 +2595,7 @@
         <v>4.50240331212403</v>
       </c>
       <c r="D20" s="65">
-        <v>1.44572720792179</v>
+        <v>1.44565860486734</v>
       </c>
       <c r="E20" s="61">
         <v>135942</v>
@@ -2553,23 +2606,23 @@
       <c r="G20" s="63">
         <v>0.696236392647246</v>
       </c>
-      <c r="I20" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="38"/>
+      <c r="I20" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="45"/>
       <c r="K20" s="58">
-        <v>-130.754694712902</v>
+        <v>-130.75535073782402</v>
       </c>
       <c r="L20" s="15">
         <v>15.1572450201811</v>
       </c>
       <c r="M20" s="15">
-        <v>-145.9119397330831</v>
+        <v>-145.91259575800513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="67">
         <v>32253</v>
@@ -2589,23 +2642,23 @@
       <c r="G21" s="68">
         <v>0.0487728959597947</v>
       </c>
-      <c r="I21" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="38"/>
+      <c r="I21" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="45"/>
       <c r="K21" s="59">
-        <v>-0.57047168062713</v>
+        <v>-0.570414830169929</v>
       </c>
       <c r="L21" s="15">
         <v>-2.57705693433469</v>
       </c>
       <c r="M21" s="15">
-        <v>2.0065852537075597</v>
+        <v>2.0066421041647606</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="71">
         <v>4898</v>
@@ -2614,7 +2667,7 @@
         <v>0.933174851043187</v>
       </c>
       <c r="D22" s="70">
-        <v>1.90581715064664</v>
+        <v>1.90588769598143</v>
       </c>
       <c r="E22" s="66">
         <v>4994</v>
@@ -2625,23 +2678,23 @@
       <c r="G22" s="68">
         <v>2.55250497660101</v>
       </c>
-      <c r="I22" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="38"/>
+      <c r="I22" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="45"/>
       <c r="K22" s="58">
-        <v>3.30707477919207</v>
+        <v>3.30718339267793</v>
       </c>
       <c r="L22" s="15">
         <v>4.615897081991</v>
       </c>
       <c r="M22" s="15">
-        <v>-1.30882230279893</v>
+        <v>-1.3087136893130702</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="71">
         <v>98366</v>
@@ -2650,7 +2703,7 @@
         <v>6.2926857266822092</v>
       </c>
       <c r="D23" s="69">
-        <v>1.89140298375031</v>
+        <v>1.89130761685967</v>
       </c>
       <c r="E23" s="66">
         <v>99812.9999999999</v>
@@ -2661,23 +2714,23 @@
       <c r="G23" s="68">
         <v>0.797862913415093</v>
       </c>
-      <c r="I23" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="38"/>
+      <c r="I23" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="45"/>
       <c r="K23" s="58">
-        <v>26.298620769320102</v>
+        <v>26.298549991880797</v>
       </c>
       <c r="L23" s="15">
         <v>27.020894073879298</v>
       </c>
       <c r="M23" s="15">
-        <v>-0.72227330455919514</v>
+        <v>-0.72234408199850009</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="71">
         <v>81371</v>
@@ -2686,7 +2739,7 @@
         <v>5.7743749820811905</v>
       </c>
       <c r="D24" s="69">
-        <v>1.77696104291952</v>
+        <v>1.7768436144545</v>
       </c>
       <c r="E24" s="66">
         <v>81376.9999999999</v>
@@ -2697,23 +2750,23 @@
       <c r="G24" s="68">
         <v>0.73376972556951</v>
       </c>
-      <c r="I24" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="38"/>
+      <c r="I24" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="45"/>
       <c r="K24" s="60">
-        <v>838.729478408308</v>
+        <v>838.741438951226</v>
       </c>
       <c r="L24" s="28">
         <v>590.932593246751</v>
       </c>
       <c r="M24" s="28">
-        <v>247.79688516155693</v>
+        <v>247.80884570447495</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="71">
         <v>16995</v>
@@ -2733,23 +2786,23 @@
       <c r="G25" s="68">
         <v>1.06629852907285</v>
       </c>
-      <c r="I25" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="38"/>
+      <c r="I25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="45"/>
       <c r="K25" s="59">
-        <v>4.12756989160172</v>
+        <v>4.12757200110328</v>
       </c>
       <c r="L25" s="15">
         <v>3.76456513933128</v>
       </c>
       <c r="M25" s="15">
-        <v>0.36300475227043982</v>
+        <v>0.36300686177199992</v>
       </c>
     </row>
     <row r="26" ht="15">
       <c r="A26" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="62">
         <v>124439</v>
@@ -2769,23 +2822,23 @@
       <c r="G26" s="63">
         <v>1.28101359597811</v>
       </c>
-      <c r="I26" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="38"/>
+      <c r="I26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="45"/>
       <c r="K26" s="60">
-        <v>5622.91538811305</v>
+        <v>5622.91827983986</v>
       </c>
       <c r="L26" s="28">
         <v>5076.74803261113</v>
       </c>
       <c r="M26" s="28">
-        <v>546.1673555019197</v>
+        <v>546.17024722872975</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="67">
         <v>123853</v>
@@ -2805,23 +2858,23 @@
       <c r="G27" s="68">
         <v>1.28905220807958</v>
       </c>
-      <c r="I27" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="38"/>
+      <c r="I27" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="45"/>
       <c r="K27" s="60">
-        <v>1479.13944303456</v>
+        <v>1479.14173739965</v>
       </c>
       <c r="L27" s="28">
         <v>1031.82101519595</v>
       </c>
       <c r="M27" s="28">
-        <v>447.31842783861</v>
+        <v>447.32072220370014</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="67">
         <v>80278</v>
@@ -2841,23 +2894,23 @@
       <c r="G28" s="68">
         <v>1.54684057460552</v>
       </c>
-      <c r="I28" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="38"/>
+      <c r="I28" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="45"/>
       <c r="K28" s="58">
-        <v>-0.74792727919396007</v>
+        <v>-0.747926813153745</v>
       </c>
       <c r="L28" s="15">
         <v>4.72666098615937</v>
       </c>
       <c r="M28" s="15">
-        <v>-5.47458826535333</v>
+        <v>-5.4745877993131149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="67">
         <v>43575</v>
@@ -2880,48 +2933,48 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -2934,107 +2987,107 @@
       <c r="G32" s="32"/>
     </row>
     <row r="34" ht="15">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>52</v>
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="57" t="s">
+      <c r="J34" s="50"/>
+      <c r="K34" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="L34" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="36" t="s">
+      <c r="M34" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="M34" s="36" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="35" ht="15">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="18">
         <v>400</v>
       </c>
       <c r="D35" s="19">
-        <v>0.262986207693201</v>
+        <v>0.262985499918808</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F35" s="19">
         <v>-0.2</v>
       </c>
       <c r="G35" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
+        <v>58</v>
+      </c>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
     </row>
     <row r="36" ht="15">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="18">
         <v>300</v>
       </c>
       <c r="D36" s="19">
-        <v>0.200598198768499</v>
+        <v>0.200597504181856</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F36" s="19">
         <v>-0.15</v>
       </c>
       <c r="G36" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
+        <v>58</v>
+      </c>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
     </row>
     <row r="37" ht="15">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="18">
         <v>200</v>
       </c>
       <c r="D37" s="19">
-        <v>0.137142715721226</v>
+        <v>0.137142133140222</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F37" s="19">
         <v>-0.1</v>
       </c>
       <c r="G37" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="51"/>
       <c r="K37" s="24">
         <v>1554</v>
       </c>
@@ -3046,27 +3099,27 @@
       </c>
     </row>
     <row r="38" ht="15">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="18">
         <v>100</v>
       </c>
       <c r="D38" s="19">
-        <v>0.0704918231424922</v>
+        <v>0.0704913385028774</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F38" s="19">
         <v>-0.07</v>
       </c>
       <c r="G38" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="J38" s="42"/>
+      <c r="J38" s="44"/>
       <c r="K38" s="16">
         <v>1534</v>
       </c>
@@ -3078,21 +3131,21 @@
       </c>
     </row>
     <row r="39" ht="15">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="35"/>
-      <c r="I39" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="42"/>
+      <c r="I39" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="44"/>
       <c r="K39" s="16">
         <v>11</v>
       </c>
@@ -3104,27 +3157,27 @@
       </c>
     </row>
     <row r="40" ht="15">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="18">
         <v>-100</v>
       </c>
       <c r="D40" s="19">
-        <v>-0.029802045656203</v>
+        <v>-0.0298009995102298</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F40" s="19">
         <v>-0.07</v>
       </c>
       <c r="G40" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I40" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J40" s="42"/>
+        <v>58</v>
+      </c>
+      <c r="I40" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="44"/>
       <c r="K40" s="16">
         <v>9</v>
       </c>
@@ -3136,23 +3189,23 @@
       </c>
     </row>
     <row r="41" ht="15">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="18">
         <v>-200</v>
       </c>
       <c r="D41" s="19">
-        <v>-0.0417992830679902</v>
+        <v>-0.0418084315145053</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="35"/>
-      <c r="I41" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="J41" s="41"/>
+      <c r="I41" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="51"/>
       <c r="K41" s="24">
         <v>156</v>
       </c>
@@ -3164,21 +3217,21 @@
       </c>
     </row>
     <row r="42" ht="15">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="18">
         <v>-300</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="35"/>
-      <c r="I42" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="J42" s="42"/>
+      <c r="I42" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" s="44"/>
       <c r="K42" s="16">
         <v>156</v>
       </c>
@@ -3190,27 +3243,27 @@
       </c>
     </row>
     <row r="43" ht="15">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D43" s="19">
-        <v>0.170932609901697</v>
+        <v>0.17093213992866</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F43" s="19">
         <v>-0.15</v>
       </c>
       <c r="G43" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I43" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43" s="42"/>
+        <v>58</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="44"/>
       <c r="K43" s="16">
         <v>0</v>
       </c>
@@ -3220,27 +3273,27 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" ht="15">
-      <c r="A44" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="40"/>
+      <c r="A44" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="55"/>
       <c r="C44" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J44" s="42"/>
+        <v>51</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="44"/>
       <c r="K44" s="16">
         <v>0</v>
       </c>
@@ -3250,27 +3303,27 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" ht="15">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="18">
         <v>400</v>
       </c>
       <c r="D45" s="19">
-        <v>0.328829595000316</v>
+        <v>0.328828289681052</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="19">
         <v>-0.2</v>
       </c>
       <c r="G45" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="J45" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="I45" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="51"/>
       <c r="K45" s="24">
         <v>1398</v>
       </c>
@@ -3282,27 +3335,27 @@
       </c>
     </row>
     <row r="46" ht="15">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="18">
         <v>300</v>
       </c>
       <c r="D46" s="19">
-        <v>0.252792175423812</v>
+        <v>0.252790859098682</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F46" s="19">
         <v>-0.15</v>
       </c>
       <c r="G46" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I46" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="I46" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" s="51"/>
       <c r="K46" s="24">
         <v>854</v>
       </c>
@@ -3314,27 +3367,27 @@
       </c>
     </row>
     <row r="47" ht="15">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="18">
         <v>200</v>
       </c>
       <c r="D47" s="19">
-        <v>0.174566050290676</v>
+        <v>0.174565172957453</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="19">
         <v>-0.1</v>
       </c>
       <c r="G47" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="J47" s="42"/>
+        <v>58</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" s="44"/>
       <c r="K47" s="16">
         <v>226</v>
       </c>
@@ -3346,27 +3399,27 @@
       </c>
     </row>
     <row r="48" ht="15">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="18">
         <v>100</v>
       </c>
       <c r="D48" s="19">
-        <v>0.0909608922544235</v>
+        <v>0.0909600020471807</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="19">
         <v>-0.07</v>
       </c>
       <c r="G48" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I48" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="J48" s="42"/>
+        <v>58</v>
+      </c>
+      <c r="I48" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48" s="44"/>
       <c r="K48" s="16">
         <v>1080</v>
       </c>
@@ -3378,21 +3431,21 @@
       </c>
     </row>
     <row r="49" ht="15">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
       <c r="G49" s="35"/>
-      <c r="I49" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="J49" s="41"/>
+      <c r="I49" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J49" s="51"/>
       <c r="K49" s="24">
         <v>75</v>
       </c>
@@ -3404,27 +3457,27 @@
       </c>
     </row>
     <row r="50" ht="15">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="18">
         <v>-100</v>
       </c>
       <c r="D50" s="19">
-        <v>-0.0663888148583997</v>
+        <v>-0.0663871808209789</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="19">
         <v>-0.07</v>
       </c>
       <c r="G50" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="J50" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="I50" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J50" s="51"/>
       <c r="K50" s="24">
         <v>99</v>
       </c>
@@ -3436,23 +3489,23 @@
       </c>
     </row>
     <row r="51" ht="15">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="18">
         <v>-200</v>
       </c>
       <c r="D51" s="19">
-        <v>-0.0919964354887667</v>
+        <v>-0.0920043035996241</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="35"/>
-      <c r="I51" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="J51" s="41"/>
+      <c r="I51" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="J51" s="51"/>
       <c r="K51" s="24">
         <v>370</v>
       </c>
@@ -3464,144 +3517,144 @@
       </c>
     </row>
     <row r="52" ht="15">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="18">
         <v>-300</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="35"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
     </row>
     <row r="53" ht="15">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D53" s="19">
-        <v>0.179765234094412</v>
+        <v>0.179764527877397</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="19">
         <v>-0.15</v>
       </c>
       <c r="G53" s="72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" ht="15">
-      <c r="A54" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="40"/>
+      <c r="A54" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="55"/>
       <c r="C54" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E54" s="34"/>
       <c r="F54" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="I54" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" s="50"/>
+      <c r="K54" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="L54" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="J54" s="37"/>
-      <c r="K54" s="36" t="s">
+      <c r="M54" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="L54" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="M54" s="36" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="55" ht="15">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="18">
         <v>400</v>
       </c>
       <c r="D55" s="19">
-        <v>0.0330707477919207</v>
+        <v>0.0330718339267793</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="19">
         <v>-0.35</v>
       </c>
       <c r="G55" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
+        <v>58</v>
+      </c>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
     </row>
     <row r="56" ht="15">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="18">
         <v>300</v>
       </c>
       <c r="D56" s="19">
-        <v>0.0235906283473029</v>
+        <v>0.0235916915302419</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F56" s="19">
         <v>-0.25</v>
       </c>
       <c r="G56" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
+        <v>58</v>
+      </c>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
     </row>
     <row r="57" ht="15">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="18">
         <v>200</v>
       </c>
       <c r="D57" s="19">
-        <v>0.0145162397523794</v>
+        <v>0.0145170097126542</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F57" s="19">
         <v>-0.15</v>
       </c>
       <c r="G57" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I57" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="J57" s="38"/>
+        <v>58</v>
+      </c>
+      <c r="I57" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="J57" s="45"/>
       <c r="K57" s="15">
         <v>0</v>
       </c>
@@ -3613,27 +3666,27 @@
       </c>
     </row>
     <row r="58" ht="15">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="18">
         <v>100</v>
       </c>
       <c r="D58" s="19">
-        <v>0.00622666413078783</v>
+        <v>0.00622725500006477</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F58" s="19">
         <v>-0.1</v>
       </c>
       <c r="G58" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" s="38"/>
+        <v>58</v>
+      </c>
+      <c r="I58" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" s="45"/>
       <c r="K58" s="15">
         <v>0</v>
       </c>
@@ -3645,21 +3698,21 @@
       </c>
     </row>
     <row r="59" ht="15">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="35"/>
-      <c r="I59" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="J59" s="38"/>
+      <c r="I59" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="J59" s="45"/>
       <c r="K59" s="15">
         <v>0</v>
       </c>
@@ -3671,27 +3724,27 @@
       </c>
     </row>
     <row r="60" ht="15">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="18">
         <v>-100</v>
       </c>
       <c r="D60" s="19">
-        <v>-0.00317577295157995</v>
+        <v>-0.00317737050098378</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F60" s="19">
         <v>-0.1</v>
       </c>
       <c r="G60" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I60" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="J60" s="38"/>
+        <v>58</v>
+      </c>
+      <c r="I60" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="J60" s="45"/>
       <c r="K60" s="15">
         <v>0</v>
       </c>
@@ -3703,198 +3756,199 @@
       </c>
     </row>
     <row r="61" ht="15">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="18">
         <v>-200</v>
       </c>
       <c r="D61" s="19">
-        <v>-0.00350613816401534</v>
+        <v>-0.0035076398770738</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="35"/>
     </row>
     <row r="62" ht="15">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="18">
         <v>-300</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="35"/>
     </row>
     <row r="63" ht="15">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D63" s="19">
-        <v>0.0144965892479941</v>
+        <v>0.0144979740643562</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F63" s="19">
         <v>-0.25</v>
       </c>
       <c r="G63" s="72" t="s">
-        <v>60</v>
-      </c>
-    </row>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" ht="65.25" customHeight="1"/>
     <row r="65" ht="28.5" customHeight="1">
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="20" t="s">
+      <c r="G65" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="H65" s="48"/>
+      <c r="I65" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G65" s="47" t="s">
+      <c r="J65" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H65" s="47"/>
-      <c r="I65" s="20" t="s">
+      <c r="K65" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J65" s="20" t="s">
+    </row>
+    <row r="66">
+      <c r="B66" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="K65" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
       <c r="E66" s="16">
         <v>32253</v>
       </c>
       <c r="F66" s="16">
-        <v>32391.6214141871</v>
-      </c>
-      <c r="G66" s="46">
-        <v>32525.9233128735</v>
-      </c>
-      <c r="H66" s="46"/>
+        <v>32391.6214141853</v>
+      </c>
+      <c r="G66" s="42">
+        <v>32525.9231095902</v>
+      </c>
+      <c r="H66" s="42"/>
       <c r="I66" s="16">
-        <v>32658.1405742301</v>
+        <v>32658.1404009772</v>
       </c>
       <c r="J66" s="16">
-        <v>32789.0395342663</v>
+        <v>32789.0394753047</v>
       </c>
       <c r="K66" s="16">
-        <v>32917.2089213982</v>
+        <v>32917.2089797725</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="16">
+        <v>859.212241995681</v>
+      </c>
+      <c r="F67" s="16">
+        <v>590.899438182527</v>
+      </c>
+      <c r="G67" s="42">
+        <v>591.422371785943</v>
+      </c>
+      <c r="H67" s="42"/>
+      <c r="I67" s="16">
+        <v>12.6581244706673</v>
+      </c>
+      <c r="J67" s="16">
+        <v>13.4378271089281</v>
+      </c>
+      <c r="K67" s="16">
+        <v>13.9293462102231</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="16">
+        <v>2807.30274294634</v>
+      </c>
+      <c r="F68" s="16">
+        <v>2363.65076029576</v>
+      </c>
+      <c r="G68" s="42">
+        <v>2265.21648855142</v>
+      </c>
+      <c r="H68" s="42"/>
+      <c r="I68" s="16">
+        <v>2150.98918497037</v>
+      </c>
+      <c r="J68" s="16">
+        <v>2339.06055555573</v>
+      </c>
+      <c r="K68" s="16">
+        <v>2356.50424751149</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="16">
-        <v>859.216202026372</v>
-      </c>
-      <c r="F67" s="16">
-        <v>590.9005402618</v>
-      </c>
-      <c r="G67" s="46">
-        <v>591.425478867308</v>
-      </c>
-      <c r="H67" s="46"/>
-      <c r="I67" s="16">
-        <v>12.658289065823</v>
-      </c>
-      <c r="J67" s="16">
-        <v>13.4407705180522</v>
-      </c>
-      <c r="K67" s="16">
-        <v>13.9292655179251</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="42" t="s">
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="42"/>
+      <c r="I69" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="16">
-        <v>2807.35291098429</v>
-      </c>
-      <c r="F68" s="16">
-        <v>2363.63460246826</v>
-      </c>
-      <c r="G68" s="46">
-        <v>2265.26066441264</v>
-      </c>
-      <c r="H68" s="46"/>
-      <c r="I68" s="16">
-        <v>2150.99155528012</v>
-      </c>
-      <c r="J68" s="16">
-        <v>2339.11979577455</v>
-      </c>
-      <c r="K68" s="16">
-        <v>2356.42736054069</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G69" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H69" s="46"/>
-      <c r="I69" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K69" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
       <c r="E70" s="16">
         <v>4080.20386025042</v>
       </c>
       <c r="F70" s="16">
         <v>4073.03897633002</v>
       </c>
-      <c r="G70" s="46">
+      <c r="G70" s="42">
         <v>4071.96073041263</v>
       </c>
-      <c r="H70" s="46"/>
+      <c r="H70" s="42"/>
       <c r="I70" s="16">
         <v>6071.67641249129</v>
       </c>
@@ -3906,47 +3960,47 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
+      <c r="B71" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
       <c r="E71" s="16">
-        <v>138.621414187235</v>
+        <v>138.621414185414</v>
       </c>
       <c r="F71" s="16">
-        <v>134.301898519624</v>
-      </c>
-      <c r="G71" s="46">
-        <v>132.217261364971</v>
-      </c>
-      <c r="H71" s="46"/>
+        <v>134.301695241057</v>
+      </c>
+      <c r="G71" s="42">
+        <v>132.217291361394</v>
+      </c>
+      <c r="H71" s="42"/>
       <c r="I71" s="16">
-        <v>130.898960636756</v>
+        <v>130.89907498293</v>
       </c>
       <c r="J71" s="16">
-        <v>128.169386868006</v>
+        <v>128.169504282255</v>
       </c>
       <c r="K71" s="16">
-        <v>125.768475937859</v>
+        <v>125.768721495863</v>
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
+      <c r="B72" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
       <c r="E72" s="16">
         <v>0</v>
       </c>
       <c r="F72" s="16">
         <v>0</v>
       </c>
-      <c r="G72" s="46">
+      <c r="G72" s="42">
         <v>0</v>
       </c>
-      <c r="H72" s="46"/>
+      <c r="H72" s="42"/>
       <c r="I72" s="16">
         <v>0</v>
       </c>
@@ -3958,125 +4012,125 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="16">
+        <v>40138.3402593778</v>
+      </c>
+      <c r="F73" s="16">
+        <v>39553.5122842346</v>
+      </c>
+      <c r="G73" s="42">
+        <v>39586.7399917016</v>
+      </c>
+      <c r="H73" s="42"/>
+      <c r="I73" s="16">
+        <v>41024.3631978925</v>
+      </c>
+      <c r="J73" s="16">
+        <v>41338.5768001663</v>
+      </c>
+      <c r="K73" s="16">
+        <v>41480.4921412698</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="16">
+        <v>859.212241995687</v>
+      </c>
+      <c r="F74" s="16">
+        <v>590.899438182455</v>
+      </c>
+      <c r="G74" s="42">
+        <v>591.422371785866</v>
+      </c>
+      <c r="H74" s="42"/>
+      <c r="I74" s="16">
+        <v>12.6581244706031</v>
+      </c>
+      <c r="J74" s="16">
+        <v>13.43782710873</v>
+      </c>
+      <c r="K74" s="16">
+        <v>13.9293462101276</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="16">
-        <v>40138.3943874484</v>
-      </c>
-      <c r="F73" s="16">
-        <v>39553.4974317667</v>
-      </c>
-      <c r="G73" s="46">
-        <v>39586.7874479311</v>
-      </c>
-      <c r="H73" s="46"/>
-      <c r="I73" s="16">
-        <v>41024.365791704</v>
-      </c>
-      <c r="J73" s="16">
-        <v>41338.6389253416</v>
-      </c>
-      <c r="K73" s="16">
-        <v>41480.4148696744</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="42" t="s">
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="16">
+        <v>2824.59891924248</v>
+      </c>
+      <c r="F75" s="16">
+        <v>2381.63988081437</v>
+      </c>
+      <c r="G75" s="42">
+        <v>2283.96595461066</v>
+      </c>
+      <c r="H75" s="42"/>
+      <c r="I75" s="16">
+        <v>2171.68946150697</v>
+      </c>
+      <c r="J75" s="16">
+        <v>2361.25452932761</v>
+      </c>
+      <c r="K75" s="16">
+        <v>2380.70102548954</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="16">
-        <v>859.216202026378</v>
-      </c>
-      <c r="F74" s="16">
-        <v>590.900540261868</v>
-      </c>
-      <c r="G74" s="46">
-        <v>591.425478867188</v>
-      </c>
-      <c r="H74" s="46"/>
-      <c r="I74" s="16">
-        <v>12.658289065859</v>
-      </c>
-      <c r="J74" s="16">
-        <v>13.4407705187461</v>
-      </c>
-      <c r="K74" s="16">
-        <v>13.9292655164492</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="42" t="s">
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="42"/>
+      <c r="I76" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="16">
-        <v>2824.6490867572</v>
-      </c>
-      <c r="F75" s="16">
-        <v>2381.62372375723</v>
-      </c>
-      <c r="G75" s="46">
-        <v>2284.01013027449</v>
-      </c>
-      <c r="H75" s="46"/>
-      <c r="I75" s="16">
-        <v>2171.69183192028</v>
-      </c>
-      <c r="J75" s="16">
-        <v>2361.31376978398</v>
-      </c>
-      <c r="K75" s="16">
-        <v>2380.62414818464</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G76" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H76" s="46"/>
-      <c r="I76" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J76" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K76" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
       <c r="E77" s="16">
         <v>4080.20386025046</v>
       </c>
       <c r="F77" s="16">
         <v>4073.03897618859</v>
       </c>
-      <c r="G77" s="46">
+      <c r="G77" s="42">
         <v>4071.96073041946</v>
       </c>
-      <c r="H77" s="46"/>
+      <c r="H77" s="42"/>
       <c r="I77" s="16">
         <v>6071.67641312397</v>
       </c>
@@ -4088,47 +4142,47 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
+      <c r="B78" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
       <c r="E78" s="16">
-        <v>-17.2961757728097</v>
+        <v>-17.2961762960098</v>
       </c>
       <c r="F78" s="16">
-        <v>-17.9891213143917</v>
-      </c>
-      <c r="G78" s="46">
-        <v>-18.7494658600962</v>
-      </c>
-      <c r="H78" s="46"/>
+        <v>-17.989120540968</v>
+      </c>
+      <c r="G78" s="42">
+        <v>-18.7494660915665</v>
+      </c>
+      <c r="H78" s="42"/>
       <c r="I78" s="16">
-        <v>-20.7002766724171</v>
+        <v>-20.7002765138141</v>
       </c>
       <c r="J78" s="16">
-        <v>-22.193973976134</v>
+        <v>-22.1939736595006</v>
       </c>
       <c r="K78" s="16">
-        <v>-24.1967875764921</v>
+        <v>-24.1967779828922</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
+      <c r="B79" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
       <c r="E79" s="16">
         <v>0</v>
       </c>
       <c r="F79" s="16">
         <v>0</v>
       </c>
-      <c r="G79" s="46">
+      <c r="G79" s="42">
         <v>0</v>
       </c>
-      <c r="H79" s="46"/>
+      <c r="H79" s="42"/>
       <c r="I79" s="16">
         <v>0</v>
       </c>
@@ -4140,90 +4194,90 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="54" t="s">
+      <c r="B80" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="16">
+        <v>7746.71884519254</v>
+      </c>
+      <c r="F80" s="16">
+        <v>7027.58917464442</v>
+      </c>
+      <c r="G80" s="42">
+        <v>6928.59959072439</v>
+      </c>
+      <c r="H80" s="42"/>
+      <c r="I80" s="16">
+        <v>8235.32372258775</v>
+      </c>
+      <c r="J80" s="16">
+        <v>8421.36782039376</v>
+      </c>
+      <c r="K80" s="16">
+        <v>8437.5144424658</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="30">
+        <v>5.18133432508485</v>
+      </c>
+      <c r="F81" s="30">
+        <v>5.6283188019789</v>
+      </c>
+      <c r="G81" s="43">
+        <v>5.71352687846157</v>
+      </c>
+      <c r="H81" s="43"/>
+      <c r="I81" s="30">
+        <v>4.98151190892124</v>
+      </c>
+      <c r="J81" s="30">
+        <v>4.90877226619386</v>
+      </c>
+      <c r="K81" s="30">
+        <v>4.91619806094784</v>
+      </c>
+    </row>
+    <row r="83" ht="28.5" customHeight="1">
+      <c r="B83" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="16">
-        <v>7746.77297326115</v>
-      </c>
-      <c r="F80" s="16">
-        <v>7027.5741188933</v>
-      </c>
-      <c r="G80" s="46">
-        <v>6928.64687370096</v>
-      </c>
-      <c r="H80" s="46"/>
-      <c r="I80" s="16">
-        <v>8235.32625743775</v>
-      </c>
-      <c r="J80" s="16">
-        <v>8421.43000394342</v>
-      </c>
-      <c r="K80" s="16">
-        <v>8437.4374748737</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="54" t="s">
+      <c r="C83" s="47"/>
+      <c r="D83" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C81" s="54"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="30">
-        <v>5.18130510936496</v>
-      </c>
-      <c r="F81" s="30">
-        <v>5.62832874653418</v>
-      </c>
-      <c r="G81" s="53">
-        <v>5.71349473707349</v>
-      </c>
-      <c r="H81" s="53"/>
-      <c r="I81" s="30">
-        <v>4.98151069056345</v>
-      </c>
-      <c r="J81" s="30">
-        <v>4.90874339702216</v>
-      </c>
-      <c r="K81" s="30">
-        <v>4.91623374907383</v>
-      </c>
-    </row>
-    <row r="83" ht="28.5" customHeight="1">
-      <c r="B83" s="45" t="s">
+      <c r="F83" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="45"/>
-      <c r="D83" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="6" t="s">
+      <c r="G83" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="H83" s="47"/>
+      <c r="I83" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G83" s="45" t="s">
+      <c r="J83" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H83" s="45"/>
-      <c r="I83" s="6" t="s">
+      <c r="K83" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C84" s="43"/>
+        <v>32</v>
+      </c>
+      <c r="C84" s="53"/>
       <c r="D84" s="11">
         <v>98366</v>
       </c>
@@ -4231,27 +4285,27 @@
         <v>6.2926857266822092</v>
       </c>
       <c r="F84" s="12">
-        <v>0.85266197508113373</v>
-      </c>
-      <c r="G84" s="51">
-        <v>1.31163428493611</v>
-      </c>
-      <c r="H84" s="51"/>
+        <v>0.85267413430578243</v>
+      </c>
+      <c r="G84" s="40">
+        <v>1.31163196110136</v>
+      </c>
+      <c r="H84" s="40"/>
       <c r="I84" s="12">
-        <v>27.615151215747247</v>
+        <v>27.615183576655177</v>
       </c>
       <c r="J84" s="12">
-        <v>-0.268732330587789</v>
+        <v>-0.269016154000016</v>
       </c>
       <c r="K84" s="12">
-        <v>0.71674047631913</v>
+        <v>0.716785353353226</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="C85" s="43"/>
+        <v>117</v>
+      </c>
+      <c r="C85" s="53"/>
       <c r="D85" s="11">
         <v>9220.00000000001</v>
       </c>
@@ -4261,10 +4315,10 @@
       <c r="F85" s="12">
         <v>2.3783186785179473</v>
       </c>
-      <c r="G85" s="51">
+      <c r="G85" s="40">
         <v>2.11653702819957</v>
       </c>
-      <c r="H85" s="51"/>
+      <c r="H85" s="40"/>
       <c r="I85" s="12">
         <v>55.463459250024115</v>
       </c>
@@ -4277,9 +4331,9 @@
     </row>
     <row r="86">
       <c r="B86" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C86" s="43"/>
+        <v>118</v>
+      </c>
+      <c r="C86" s="53"/>
       <c r="D86" s="11">
         <v>81371</v>
       </c>
@@ -4287,34 +4341,100 @@
         <v>5.7743749820811905</v>
       </c>
       <c r="F86" s="12">
-        <v>0.65201092601876343</v>
-      </c>
-      <c r="G86" s="51">
-        <v>1.19324509424348</v>
-      </c>
-      <c r="H86" s="51"/>
+        <v>0.65202562479709736</v>
+      </c>
+      <c r="G86" s="40">
+        <v>1.1932422850567999</v>
+      </c>
+      <c r="H86" s="40"/>
       <c r="I86" s="12">
-        <v>23.022968486013461</v>
+        <v>23.0230006759675</v>
       </c>
       <c r="J86" s="12">
-        <v>0.178126158442063</v>
+        <v>0.177781104912826</v>
       </c>
       <c r="K86" s="12">
-        <v>-0.287780645701356</v>
+        <v>-0.287730695285448</v>
       </c>
     </row>
     <row r="87">
       <c r="D87" s="5"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A34:B43"/>
+    <mergeCell ref="A44:B53"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A54:B63"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I34:J36"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I54:J56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="G84:H84"/>
@@ -4331,72 +4451,6 @@
     <mergeCell ref="G73:H73"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I54:J56"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I34:J36"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A54:B63"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A34:B43"/>
-    <mergeCell ref="A44:B53"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="G85:H85"/>
     <mergeCell ref="B86:C86"/>
@@ -4419,7 +4473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:W40"/>
   <sheetViews>
@@ -4435,925 +4489,925 @@
   <sheetData>
     <row r="2" ht="39.75" customHeight="1">
       <c r="E2" s="8"/>
-      <c r="K2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="K2" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3">
-      <c r="B3" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
+      <c r="B3" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
     </row>
     <row r="4">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
     </row>
     <row r="5">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
     </row>
     <row r="6">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
     </row>
     <row r="7">
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
     </row>
     <row r="8">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
     </row>
     <row r="9">
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
     </row>
     <row r="10">
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
     </row>
     <row r="11">
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
     </row>
     <row r="12">
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
     </row>
     <row r="13">
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
     </row>
     <row r="14">
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
     </row>
     <row r="15">
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
     </row>
     <row r="16">
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
     </row>
     <row r="17">
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
     </row>
     <row r="18">
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
     </row>
     <row r="19">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
     </row>
     <row r="20">
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
     </row>
     <row r="21">
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
     </row>
     <row r="22">
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
     </row>
     <row r="23">
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
     </row>
     <row r="24">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
     </row>
     <row r="25">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
     </row>
     <row r="26">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
     </row>
     <row r="27">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
     </row>
     <row r="28">
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
     </row>
     <row r="29">
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
     </row>
     <row r="30">
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
     </row>
     <row r="31">
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
     </row>
     <row r="32">
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
     </row>
     <row r="33">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
     </row>
     <row r="34">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
     </row>
     <row r="35">
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
     </row>
     <row r="36">
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
     </row>
     <row r="37">
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
     </row>
     <row r="38">
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
     </row>
     <row r="39">
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
     </row>
     <row r="40">
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
     </row>
   </sheetData>
   <mergeCells>
